--- a/templates/CREATE/single object ingest/Single_Object_Ingest_Template.xlsx
+++ b/templates/CREATE/single object ingest/Single_Object_Ingest_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agaylie/Desktop/Arca Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agaylie/Documents/GitHub/arca-templates/templates/CREATE/single object ingest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E864E-44A0-6041-B130-8449F15059C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531FBF9-C7C1-2140-A282-CA6B23A5EE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51620" yWindow="4000" windowWidth="36640" windowHeight="21100" xr2:uid="{C9DC37A4-3DAE-4B4E-8444-0766A02E0B8B}"/>
+    <workbookView xWindow="10060" yWindow="3340" windowWidth="36640" windowHeight="21100" xr2:uid="{C9DC37A4-3DAE-4B4E-8444-0766A02E0B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="3" r:id="rId1"/>
@@ -905,9 +905,6 @@
     <t>Spatial characteristics of described resource, such as a country, city, region, address or other geographical term. Captures aboutness.</t>
   </si>
   <si>
-    <t>Identifier URL for the resource</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -1152,9 +1149,6 @@
     <t>Temporal subject term for your object; separate terms with a |</t>
   </si>
   <si>
-    <t>Contains the Uniform Resource Location of the resource</t>
-  </si>
-  <si>
     <t>Conditions relating to use of a resource</t>
   </si>
   <si>
@@ -1264,12 +1258,41 @@
       <t xml:space="preserve"> instead.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identifier URI for the resource. Use format: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>https://link-here.com%%Link Text</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Contains the Uniform Resource Location of the resource. Use format: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://link-here.com%%Link Text</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1339,6 +1362,12 @@
       <color rgb="FF0432FF"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1730,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0BA5A5-D0F6-DD43-B7E2-90723EE16CD6}">
   <dimension ref="A1:BT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BD4" sqref="BD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1803,7 +1832,7 @@
     <col min="67" max="67" width="26.6640625" customWidth="1"/>
     <col min="68" max="68" width="32" customWidth="1"/>
     <col min="69" max="69" width="23.5" customWidth="1"/>
-    <col min="70" max="70" width="20.33203125" customWidth="1"/>
+    <col min="70" max="70" width="27.6640625" customWidth="1"/>
     <col min="71" max="71" width="41.1640625" customWidth="1"/>
     <col min="72" max="72" width="25.6640625" customWidth="1"/>
   </cols>
@@ -2031,7 +2060,7 @@
         <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>237</v>
@@ -2046,7 +2075,7 @@
         <v>240</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>241</v>
@@ -2073,13 +2102,13 @@
         <v>247</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>239</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
@@ -2103,139 +2132,139 @@
         <v>260</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="AD2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO2" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="AN2" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AP2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AP2" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="AQ2" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AT2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="BB2" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="BC2" s="2" t="s">
         <v>239</v>
       </c>
       <c r="BD2" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="BF2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="BE2" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="BH2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="BG2" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="BI2" s="10" t="s">
+      <c r="BK2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="BM2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="BJ2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="BS2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="BQ2" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:72" s="2" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.25">
@@ -2267,7 +2296,7 @@
         <v>168</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>221</v>
@@ -2362,29 +2391,29 @@
         <v>249</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>182</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AK4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AN4" s="2">
         <v>16</v>
@@ -2402,7 +2431,7 @@
         <v>207</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BO4" s="2" t="s">
         <v>189</v>

--- a/templates/CREATE/single object ingest/Single_Object_Ingest_Template.xlsx
+++ b/templates/CREATE/single object ingest/Single_Object_Ingest_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agaylie/Documents/GitHub/arca-templates/templates/CREATE/single object ingest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531FBF9-C7C1-2140-A282-CA6B23A5EE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44965E1-6DFD-3644-A7B9-CB8B9CE5C3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10060" yWindow="3340" windowWidth="36640" windowHeight="21100" xr2:uid="{C9DC37A4-3DAE-4B4E-8444-0766A02E0B8B}"/>
   </bookViews>
@@ -1177,20 +1177,6 @@
     <t>A sunflower in a vase on a kitchen counter.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Required.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>Use OpenSeadragon for images, PDFjs for digital documents</t>
-    </r>
-  </si>
-  <si>
     <t>Vancouver (B.C.):2024-09</t>
   </si>
   <si>
@@ -1285,6 +1271,20 @@
         <scheme val="minor"/>
       </rPr>
       <t>https://link-here.com%%Link Text</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Required.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Use Open Seadragon for images, PDFjs for digital documents</t>
     </r>
   </si>
 </sst>
@@ -1759,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0BA5A5-D0F6-DD43-B7E2-90723EE16CD6}">
   <dimension ref="A1:BT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BD4" sqref="BD4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2060,7 +2060,7 @@
         <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>237</v>
@@ -2075,7 +2075,7 @@
         <v>240</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>241</v>
@@ -2102,13 +2102,13 @@
         <v>247</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>239</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
@@ -2135,7 +2135,7 @@
         <v>261</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>263</v>
@@ -2258,7 +2258,7 @@
         <v>300</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BS2" s="2" t="s">
         <v>298</v>
@@ -2403,17 +2403,17 @@
         <v>182</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AK4" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AN4" s="2">
         <v>16</v>
@@ -2431,7 +2431,7 @@
         <v>207</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BO4" s="2" t="s">
         <v>189</v>
